--- a/excel/article.xlsx
+++ b/excel/article.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10812"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF674CA9-4CB8-D14A-91D5-FD2CCF330924}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0370563-276E-B743-8DF1-71E6F4210438}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="文章链接" sheetId="1" r:id="rId1"/>
     <sheet name="菜单链接" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -37,7 +31,7 @@
         <r>
           <rPr>
             <sz val="8"/>
-            <color indexed="81"/>
+            <color rgb="FF000000"/>
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
@@ -50,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56wYRKxrO17qxKgPpt2yIRLHqCGaK80pxCv3muicJ2p51cZILdpuMx0A6uBjbC9XW9qp5qghcB3qdzA/0?wx_fmt=jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -917,6 +911,174 @@
   </si>
   <si>
     <t>http://mp.weixin.qq.com/s?__biz=MzU1MzczNzg1OQ==&amp;mid=2247483727&amp;idx=2&amp;sn=fdd05f1f7d9ac75592820ee0f3c45375&amp;chksm=fbef0aa3cc9883b5d7c033863c430e432768c01a0c7e9ab8600ea87c57b79e7207116d4fc4c8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9102年了，你还在社交媒体上看新闻吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/KyiCDTfVryArrQnVhZcpLg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56z8l1s2ngKcdsxQtLOsqQcbKmIsGbUtbRYic5EEINKQPrgFUWAJMicss0YUqtPelVWvdficxkyaV0SMQ/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追星一时爽，一直追星一直爽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ZsMBtVDniu6JAJj49t_WzA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56yGxW9aBk22EqYlW08sm652ISA84vKMiaADa2y0ma3icukck3vsZxYdnYN0DTkRArBkkicTwMibdPY4Bw/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们是——乙方，只要给钱——就都做</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/du-iVBU0Sf9RKnNN7yon7w</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56yhdcFCafUcnd5hmibZxHXAHlz9ctcB04qbJzzwIHWdW5JJ0VDUgvpy4du4AibR1yJRX1MGCQMLLhFw/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霸占网页C位是否真的能坐等收钱，走上人生巅峰?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/DpdLUQRUYvUXmfg1Px_6hA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56z3dwzCYTiaGJesEXUYg3GmV5SLTERQDoHu838RibpI0CNSr1hqGSUiavmKgPzIEI2rX0bJ6V1TbbQgw/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品公关大危机！社交媒体策略来帮你～</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/FDJPRWTph4qq_IgfSNJhvA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56xmAfVSVlVRppic754HdpjRzRzqtEWyH07HW9J9ticjIXF1oa8OEcbWC2bcTdIWWrTRUS1uvICA9qXA/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活跃用户哪里来，口碑营销 or 买关键词？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/kg0_uLFkwimgGr2kPrpqbg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56yfwzuYibvJ10OYFkmxZj2tRBvJyDMYtqA25Nic29F540yOSenqbGsv1jBKrZ0ghawvGH8ltUaG40zA/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲动是魔鬼，但是我饿呀！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/SvGaleWWe4qLfUhVHl6JOQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56xTibkshVGrSFbcldDWZickQOnVBqDVRSj1uo4tJAibbv5xy1HocAPB3hW7IV0MicNbCPg3MBXIias4j6A/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你为什么喜欢保持“队形”呀？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/tfglseCuMPF_HB-DHlq6sg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56yfwzuYibvJ10OYFkmxZj2tR4utv0ksdq8htogp7U3ZkFUTXpBSibfy9WwPsdAoF64KuIWH8LLv60ibg/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>某团购网站收益负增长，经营难以维持，正在寻求收购？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/P6-klBvfHQttldeWvhQosA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56xd7wMW7iafW4ETyJJKPeziafFNC3DiarQ9Vz0V3Ej5oxcN0PmWVXvAic2GwOLZ3S8MUXhq9XlNFMSTKA/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新品上市，还不快盯住你们的粉丝！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/veGmBtfbiOgXoacymzR1SQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56xeTvwtJicz741ibFYUKQD1EEHrIg6S3OWUI9FEoEkyd8kSeGp1lXic0GY8G3SnRRMI8MQFDfGsXammA/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈再也不用担心我下载音乐要钱啦！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/ODssQtCYZCMKaEOnwf-1nA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56xkUmracQlehwOvqDibeXXsP7AicLXWAdicBJ1VBYIZuI56iaY5vVbt5pU7WIBIZbznF2fd1ZwHpKzcGQ/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只是因为在人群中多看了你一眼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/jxtrBDxQARpakWLyt-qjcw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56wE08l0zPR9HSudeXlzWRDP3Q9SIBvzGwpMjKfglINNKJnv2zKq6CBsVxkg1ZHVkINbicL5BFeYW5Q/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机当电脑用，电脑当电视机用，电视机当摆设用？！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/K9UkEh4MyvLr0y5Pa5vzmQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56yNIQO3JRvyU0ar1tDcpVx0cbSxpzKqdNTYHD7iaeKkXUDqNjcRKr13NurT0Upvq1WaOhshDSicGQPg/0?wx_fmt=jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>男朋友在购物时玩手机？没关系，他为你买的更多！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mp.weixin.qq.com/s/tGt9hhugRzjli0oRdJfCcg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"http://mmbiz.qpic.cn/mmbiz_jpg/SIriby9au56xhMhFTTuibKuHIIlLwtUZQ22W9KTK5Xm9EQ28xLibwPqNtkibHg8aPFIoDjTrTe7Y2TicwEFNXBnZrMA/0?wx_fmt=jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -979,28 +1141,24 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <color indexed="81"/>
+      <color rgb="FF000000"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFEBFCF1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1016,7 +1174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1024,9 +1182,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1309,1334 +1475,1581 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="35.83203125" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
     <col min="3" max="3" width="21.83203125" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17">
+    <row r="1" spans="1:5">
       <c r="A1" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B2" s="9">
+        <v>43705</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E2">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="B3" s="9">
+        <v>43696</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>43606</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1403</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>43601</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>162</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
       <c r="E3">
-        <v>953</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="2">
-        <v>43598</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>163</v>
+      <c r="A4" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="B4" s="9">
+        <v>43684</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>243</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>82</v>
+        <v>244</v>
       </c>
       <c r="E4">
-        <v>1013</v>
+        <v>490</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2">
-        <v>43594</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>164</v>
+      <c r="A5" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="9">
+        <v>43678</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>246</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>3</v>
+        <v>247</v>
       </c>
       <c r="E5">
-        <v>717</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43592</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>165</v>
+      <c r="A6" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="B6" s="9">
+        <v>43671</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>249</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>2</v>
+        <v>250</v>
       </c>
       <c r="E6">
-        <v>567</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="2">
-        <v>43587</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>166</v>
+      <c r="A7" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="9">
+        <v>43661</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>252</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>253</v>
       </c>
       <c r="E7">
-        <v>719</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="2">
-        <v>43583</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>167</v>
+      <c r="A8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="B8" s="9">
+        <v>43655</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>255</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>4</v>
+        <v>256</v>
       </c>
       <c r="E8">
-        <v>795</v>
+        <v>799</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2">
-        <v>43578</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>83</v>
+      <c r="A9" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" s="9">
+        <v>43650</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>258</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>84</v>
+        <v>259</v>
       </c>
       <c r="E9">
-        <v>632</v>
+        <v>2203</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2">
-        <v>43573</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>168</v>
+      <c r="A10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B10" s="9">
+        <v>43646</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>261</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
       <c r="E10">
-        <v>696</v>
+        <v>700</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="2">
-        <v>43568</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>169</v>
+      <c r="A11" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="9">
+        <v>43632</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>86</v>
+        <v>265</v>
       </c>
       <c r="E11">
-        <v>639</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="2">
-        <v>43564</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>171</v>
+      <c r="A12" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="B12" s="9">
+        <v>43621</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>267</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>87</v>
+        <v>268</v>
       </c>
       <c r="E12">
-        <v>651</v>
+        <v>535</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="2">
-        <v>43558</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>170</v>
+      <c r="A13" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="B13" s="9">
+        <v>43618</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>270</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>88</v>
+        <v>271</v>
       </c>
       <c r="E13">
-        <v>1882</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>43554</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>172</v>
+      <c r="A14" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B14" s="9">
+        <v>43613</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>273</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>89</v>
+        <v>274</v>
       </c>
       <c r="E14">
-        <v>4978</v>
+        <v>756</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="2">
-        <v>43551</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>173</v>
+      <c r="A15" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="B15" s="9">
+        <v>43609</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>276</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>90</v>
+        <v>277</v>
       </c>
       <c r="E15">
-        <v>890</v>
+        <v>934</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B16" s="2">
-        <v>43546</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>174</v>
+        <v>43606</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>633</v>
+        <v>1403</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="B17" s="2">
-        <v>43543</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>175</v>
+        <v>43601</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="E17">
-        <v>465</v>
+        <v>953</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B18" s="2">
-        <v>43536</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>176</v>
+        <v>43598</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="E18">
-        <v>492</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B19" s="2">
-        <v>43529</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>177</v>
+        <v>43594</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>164</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>94</v>
+        <v>3</v>
       </c>
       <c r="E19">
-        <v>655</v>
+        <v>717</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="B20" s="2">
-        <v>43525</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>178</v>
+        <v>43592</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="E20">
-        <v>860</v>
+        <v>567</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B21" s="2">
-        <v>43522</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>179</v>
+        <v>43587</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>96</v>
+        <v>1</v>
       </c>
       <c r="E21">
-        <v>530</v>
+        <v>719</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B22" s="2">
-        <v>43516</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>180</v>
+        <v>43583</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>167</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
       <c r="E22">
-        <v>548</v>
+        <v>795</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="B23" s="2">
-        <v>43496</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>181</v>
+        <v>43578</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="E23">
-        <v>659</v>
+        <v>632</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2">
-        <v>43493</v>
+        <v>43573</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="E24">
-        <v>915</v>
+        <v>696</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B25" s="2">
-        <v>43489</v>
+        <v>43568</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E25">
-        <v>823</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B26" s="2">
-        <v>43483</v>
+        <v>43564</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="E26">
-        <v>727</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B27" s="2">
-        <v>43479</v>
+        <v>43558</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="E27">
-        <v>641</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="B28" s="2">
-        <v>43476</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>186</v>
+        <v>43554</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>172</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="E28">
-        <v>502</v>
+        <v>4978</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="B29" s="2">
-        <v>43473</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>187</v>
+        <v>43551</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="E29">
-        <v>673</v>
+        <v>890</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="B30" s="2">
-        <v>43469</v>
+        <v>43546</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="E30">
-        <v>284</v>
+        <v>633</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="B31" s="2">
-        <v>43467</v>
+        <v>43543</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="E31">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="B32" s="2">
-        <v>43455</v>
+        <v>43536</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="E32">
-        <v>271</v>
+        <v>492</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B33" s="2">
-        <v>43451</v>
+        <v>43529</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="E33">
-        <v>262</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2">
-        <v>43447</v>
+        <v>43525</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="E34">
-        <v>339</v>
+        <v>860</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="B35" s="2">
-        <v>43439</v>
+        <v>43522</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="E35">
-        <v>326</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B36" s="2">
-        <v>43434</v>
+        <v>43516</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="E36">
-        <v>235</v>
+        <v>548</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2">
-        <v>43430</v>
+        <v>43496</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>195</v>
+        <v>181</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="E37">
-        <v>334</v>
+        <v>659</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2">
-        <v>43406</v>
+        <v>43493</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="E38">
-        <v>22</v>
+        <v>915</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B39" s="2">
-        <v>43391</v>
+        <v>43489</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="E39">
-        <v>88</v>
+        <v>823</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="B40" s="2">
-        <v>43388</v>
+        <v>43483</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>198</v>
+        <v>184</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="E40">
-        <v>128</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B41" s="2">
-        <v>43383</v>
+        <v>43479</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>199</v>
+        <v>185</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="E41">
-        <v>423</v>
+        <v>641</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B42" s="2">
-        <v>43376</v>
+        <v>43476</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="E42">
-        <v>312</v>
+        <v>502</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="B43" s="2">
-        <v>43370</v>
+        <v>43473</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>201</v>
+        <v>187</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E43">
-        <v>205</v>
+        <v>673</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2">
-        <v>43361</v>
+        <v>43469</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>202</v>
+        <v>188</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="E44">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B45" s="2">
-        <v>43354</v>
+        <v>43467</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>203</v>
+        <v>189</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E45">
-        <v>130</v>
+        <v>441</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2">
-        <v>43339</v>
+        <v>43455</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>204</v>
+        <v>190</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="E46">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="B47" s="2">
-        <v>43335</v>
+        <v>43451</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>205</v>
+        <v>191</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="E47">
-        <v>126</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B48" s="2">
-        <v>43327</v>
+        <v>43447</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="E48">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B49" s="2">
-        <v>43309</v>
+        <v>43439</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="E49">
-        <v>153</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B50" s="2">
-        <v>43283</v>
+        <v>43434</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="E50">
-        <v>68</v>
+        <v>235</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="B51" s="2">
-        <v>43277</v>
+        <v>43430</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>209</v>
+        <v>195</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="E51">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B52" s="2">
-        <v>43271</v>
+        <v>43406</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>210</v>
+        <v>196</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="E52">
-        <v>125</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B53" s="2">
-        <v>43266</v>
+        <v>43391</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="E53">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2">
-        <v>43264</v>
+        <v>43388</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>212</v>
+        <v>198</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="E54">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="B55" s="2">
-        <v>43263</v>
+        <v>43383</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>213</v>
+        <v>199</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="E55">
-        <v>270</v>
+        <v>423</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="B56" s="2">
-        <v>43259</v>
+        <v>43376</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="E56">
-        <v>468</v>
+        <v>312</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B57" s="2">
-        <v>43257</v>
+        <v>43370</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>215</v>
+        <v>201</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="E57">
-        <v>153</v>
+        <v>205</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B58" s="2">
-        <v>43250</v>
+        <v>43361</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="E58">
-        <v>166</v>
+        <v>276</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B59" s="2">
-        <v>43248</v>
+        <v>43354</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="E59">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B60" s="2">
-        <v>43246</v>
+        <v>43339</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E60">
-        <v>29</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="B61" s="2">
-        <v>43243</v>
+        <v>43335</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="E61">
-        <v>150</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B62" s="2">
-        <v>43241</v>
+        <v>43327</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="E62">
-        <v>190</v>
+        <v>353</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B63" s="2">
-        <v>43238</v>
+        <v>43309</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="E63">
-        <v>134</v>
+        <v>153</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B64" s="2">
-        <v>43236</v>
+        <v>43283</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="E64">
-        <v>129</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="B65" s="2">
-        <v>43236</v>
+        <v>43277</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E65">
-        <v>17</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B66" s="2">
-        <v>43234</v>
+        <v>43271</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="E66">
-        <v>232</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="B67" s="2">
-        <v>43231</v>
+        <v>43266</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="E67">
-        <v>177</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="B68" s="2">
-        <v>43229</v>
+        <v>43264</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>143</v>
+        <v>129</v>
       </c>
       <c r="E68">
-        <v>299</v>
+        <v>118</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="B69" s="2">
-        <v>43227</v>
+        <v>43263</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E69">
-        <v>240</v>
+        <v>270</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="B70" s="2">
-        <v>43224</v>
+        <v>43259</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="E70">
-        <v>292</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B71" s="2">
-        <v>43224</v>
+        <v>43257</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="E71">
-        <v>48</v>
+        <v>153</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" t="s">
-        <v>80</v>
+        <v>56</v>
       </c>
       <c r="B72" s="2">
-        <v>43222</v>
+        <v>43250</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="E72">
-        <v>288</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="B73" s="2">
-        <v>43217</v>
+        <v>43248</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="E73">
-        <v>211</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="B74" s="2">
-        <v>43215</v>
+        <v>43246</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E74">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B75" s="2">
-        <v>43215</v>
+        <v>43243</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E75">
         <v>150</v>
-      </c>
-      <c r="E75">
-        <v>17</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B76" s="2">
-        <v>43213</v>
+        <v>43241</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="E76">
-        <v>358</v>
+        <v>190</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="2">
+        <v>43238</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E77">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="2">
+        <v>43236</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="E78">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="2">
+        <v>43236</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E79">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" s="2">
+        <v>43234</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E80">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="2">
+        <v>43231</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E81">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" t="s">
+        <v>76</v>
+      </c>
+      <c r="B82" s="2">
+        <v>43229</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E82">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" t="s">
+        <v>77</v>
+      </c>
+      <c r="B83" s="2">
+        <v>43227</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E83">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="2">
+        <v>43224</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E84">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" t="s">
+        <v>79</v>
+      </c>
+      <c r="B85" s="2">
+        <v>43224</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" t="s">
+        <v>80</v>
+      </c>
+      <c r="B86" s="2">
+        <v>43222</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E86">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" t="s">
+        <v>67</v>
+      </c>
+      <c r="B87" s="2">
+        <v>43217</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" t="s">
+        <v>68</v>
+      </c>
+      <c r="B88" s="2">
+        <v>43215</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E88">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="2">
+        <v>43215</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E89">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="2">
+        <v>43213</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E90">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" t="s">
         <v>71</v>
       </c>
-      <c r="B77" s="2">
+      <c r="B91" s="2">
         <v>43213</v>
       </c>
-      <c r="C77" s="1" t="s">
+      <c r="C91" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D91" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="E77">
+      <c r="E91">
         <v>40</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E77">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="E16:E91">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFD5E9D6"/>
+      </dataBar>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E15">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2645,159 +3058,186 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="D8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="C9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="D9" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="D10" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="D11" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="D12" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="D13" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="D14" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="D15" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="D16" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="D17" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="D18" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="D19" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="D20" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="D21" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="D22" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="D23" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="D24" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="D25" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="D26" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="D27" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="D28" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="D29" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="D30" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="D31" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="D32" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="D33" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="D34" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="D35" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="D36" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="D37" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="D38" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="D39" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="D40" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="D41" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="D42" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="D43" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="D44" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="D45" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="D46" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="D47" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="D48" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="D49" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="D50" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="D51" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="D52" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="D53" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="D54" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="D57" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="D56" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="D55" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="D58" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="D59" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="D60" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="D61" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="D62" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="D63" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="D64" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="D65" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="D66" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="D67" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="D68" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="D69" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="D70" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="D71" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="D72" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="D73" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="D74" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="D75" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="D76" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="D77" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="C2" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="C3" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="C4" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="C5" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="C6" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="C7" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="C8" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="C10" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="C11" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="C13" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="C12" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="C14" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="C15" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="C16" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="C17" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="C18" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="C19" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="C20" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="C21" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="C22" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="C23" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="C24" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="C25" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="C26" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="C27" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="C28" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
-    <hyperlink ref="C29" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
-    <hyperlink ref="C30" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
-    <hyperlink ref="C31" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
-    <hyperlink ref="C32" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="C33" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
-    <hyperlink ref="C34" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
-    <hyperlink ref="C35" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
-    <hyperlink ref="C36" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
-    <hyperlink ref="C37" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
-    <hyperlink ref="C38" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
-    <hyperlink ref="C39" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
-    <hyperlink ref="C40" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
-    <hyperlink ref="C41" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
-    <hyperlink ref="C42" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
-    <hyperlink ref="C43" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
-    <hyperlink ref="C44" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
-    <hyperlink ref="C45" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
-    <hyperlink ref="C46" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
-    <hyperlink ref="C47" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
-    <hyperlink ref="C48" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
-    <hyperlink ref="C50" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
-    <hyperlink ref="C49" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
-    <hyperlink ref="C51" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
-    <hyperlink ref="C52" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
-    <hyperlink ref="C53" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
-    <hyperlink ref="C54" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
-    <hyperlink ref="C55" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
-    <hyperlink ref="C56" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
-    <hyperlink ref="C57" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
-    <hyperlink ref="C58" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
-    <hyperlink ref="C59" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
-    <hyperlink ref="C60" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
-    <hyperlink ref="C61" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
-    <hyperlink ref="C62" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
-    <hyperlink ref="C63" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
-    <hyperlink ref="C64" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
-    <hyperlink ref="C65" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
-    <hyperlink ref="C66" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
-    <hyperlink ref="C67" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
-    <hyperlink ref="C68" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
-    <hyperlink ref="C69" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
-    <hyperlink ref="C70" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
-    <hyperlink ref="C71" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
-    <hyperlink ref="C72" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
-    <hyperlink ref="C73" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
-    <hyperlink ref="C74" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
-    <hyperlink ref="C75" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
-    <hyperlink ref="C76" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
-    <hyperlink ref="C77" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="D22" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D17" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D18" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D19" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C23" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D23" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="D24" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="D25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="D26" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="D27" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="D28" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="D29" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="D30" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="D31" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="D32" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="D33" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="D34" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="D35" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="D36" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="D37" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="D38" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="D39" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="D40" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="D41" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="D42" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="D43" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="D44" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="D45" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="D46" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="D47" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="D48" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="D49" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="D50" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="D51" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="D52" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="D53" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="D54" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="D55" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="D56" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="D57" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="D58" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="D59" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="D60" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="D61" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="D62" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="D63" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="D64" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="D65" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="D66" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="D67" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="D68" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="D71" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="D70" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="D69" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="D72" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="D73" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="D74" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="D75" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="D76" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="D77" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="D78" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="D79" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="D80" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="D81" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="D82" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="D83" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="D84" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="D85" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="D86" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="D87" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="D88" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="D89" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="D90" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="D91" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="C16" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="C17" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="C18" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="C19" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="C20" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="C21" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="C22" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="C24" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="C25" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="C27" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="C26" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="C28" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="C29" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="C30" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="C31" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="C32" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="C33" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="C34" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="C35" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="C36" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="C37" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="C38" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="C39" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="C40" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="C41" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="C42" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="C43" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="C44" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="C45" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="C46" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="C47" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="C48" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="C49" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="C50" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="C51" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="C52" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="C53" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="C54" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="C55" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="C56" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="C57" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="C58" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="C59" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="C60" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="C61" r:id="rId119" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="C62" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="C64" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="C63" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="C65" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="C66" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="C67" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="C68" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="C69" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="C70" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="C71" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="C72" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="C73" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="C74" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="C75" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="C76" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="C77" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="C78" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="C79" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="C80" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="C81" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="C82" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="C83" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="C84" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="C85" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="C86" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="C87" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="C88" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
+    <hyperlink ref="C89" r:id="rId147" xr:uid="{00000000-0004-0000-0000-000092000000}"/>
+    <hyperlink ref="C90" r:id="rId148" xr:uid="{00000000-0004-0000-0000-000093000000}"/>
+    <hyperlink ref="C91" r:id="rId149" xr:uid="{00000000-0004-0000-0000-000094000000}"/>
+    <hyperlink ref="C2" r:id="rId150" xr:uid="{00000000-0004-0000-0000-000095000000}"/>
+    <hyperlink ref="D2" r:id="rId151" xr:uid="{00000000-0004-0000-0000-000096000000}"/>
+    <hyperlink ref="C3" r:id="rId152" xr:uid="{00000000-0004-0000-0000-000097000000}"/>
+    <hyperlink ref="D3" r:id="rId153" xr:uid="{00000000-0004-0000-0000-000098000000}"/>
+    <hyperlink ref="C4" r:id="rId154" xr:uid="{00000000-0004-0000-0000-000099000000}"/>
+    <hyperlink ref="D4" r:id="rId155" xr:uid="{00000000-0004-0000-0000-00009A000000}"/>
+    <hyperlink ref="C5" r:id="rId156" xr:uid="{00000000-0004-0000-0000-00009B000000}"/>
+    <hyperlink ref="D5" r:id="rId157" xr:uid="{00000000-0004-0000-0000-00009C000000}"/>
+    <hyperlink ref="C6" r:id="rId158" xr:uid="{00000000-0004-0000-0000-00009D000000}"/>
+    <hyperlink ref="D6" r:id="rId159" xr:uid="{00000000-0004-0000-0000-00009E000000}"/>
+    <hyperlink ref="C7" r:id="rId160" xr:uid="{00000000-0004-0000-0000-00009F000000}"/>
+    <hyperlink ref="D7" r:id="rId161" xr:uid="{00000000-0004-0000-0000-0000A0000000}"/>
+    <hyperlink ref="C8" r:id="rId162" xr:uid="{00000000-0004-0000-0000-0000A1000000}"/>
+    <hyperlink ref="D8" r:id="rId163" xr:uid="{00000000-0004-0000-0000-0000A2000000}"/>
+    <hyperlink ref="C9" r:id="rId164" xr:uid="{00000000-0004-0000-0000-0000A3000000}"/>
+    <hyperlink ref="D9" r:id="rId165" xr:uid="{00000000-0004-0000-0000-0000A4000000}"/>
+    <hyperlink ref="C10" r:id="rId166" xr:uid="{00000000-0004-0000-0000-0000A5000000}"/>
+    <hyperlink ref="D10" r:id="rId167" xr:uid="{00000000-0004-0000-0000-0000A6000000}"/>
+    <hyperlink ref="C11" r:id="rId168" xr:uid="{00000000-0004-0000-0000-0000A7000000}"/>
+    <hyperlink ref="D11" r:id="rId169" xr:uid="{00000000-0004-0000-0000-0000A8000000}"/>
+    <hyperlink ref="C12" r:id="rId170" xr:uid="{00000000-0004-0000-0000-0000A9000000}"/>
+    <hyperlink ref="D12" r:id="rId171" xr:uid="{00000000-0004-0000-0000-0000AA000000}"/>
+    <hyperlink ref="C13" r:id="rId172" xr:uid="{00000000-0004-0000-0000-0000AB000000}"/>
+    <hyperlink ref="D13" r:id="rId173" xr:uid="{00000000-0004-0000-0000-0000AC000000}"/>
+    <hyperlink ref="C14" r:id="rId174" xr:uid="{00000000-0004-0000-0000-0000AD000000}"/>
+    <hyperlink ref="D14" r:id="rId175" xr:uid="{00000000-0004-0000-0000-0000AE000000}"/>
+    <hyperlink ref="C15" r:id="rId176" xr:uid="{00000000-0004-0000-0000-0000AF000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId150"/>
-  <legacyDrawing r:id="rId151"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId177"/>
+  <legacyDrawing r:id="rId178"/>
 </worksheet>
 </file>
 
